--- a/WeatherDisplay_Parts_List.xlsx
+++ b/WeatherDisplay_Parts_List.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Qty</t>
   </si>
@@ -90,6 +90,12 @@
   </si>
   <si>
     <t>http://www.ebay.com/itm/181934247373?_trksid=p2055119.m1438.l2649&amp;ssPageName=STRK%3AMEBIDX%3AIT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mini Toggle Switch DPDT On-Off-On </t>
+  </si>
+  <si>
+    <t>http://www.ebay.com/itm/231558109401?_trksid=p2057872.m2749.l2649&amp;ssPageName=STRK%3AMEBIDX%3AIT</t>
   </si>
 </sst>
 </file>
@@ -636,10 +642,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B5" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -708,61 +714,67 @@
       <c r="A7" s="1">
         <v>1</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="49" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>1</v>
+      </c>
+      <c r="B8" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C8" s="14" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="81" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>1</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="49" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="81" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>1</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="49" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>1</v>
       </c>
       <c r="B10" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>1</v>
+      </c>
+      <c r="B11" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C11" s="11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="65" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+    <row r="12" spans="1:3" ht="65" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B12" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C12" s="14" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="16"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="18"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="16"/>
@@ -775,17 +787,23 @@
       <c r="C14" s="18"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="3"/>
+      <c r="A15" s="16"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="18"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C4" r:id="rId1"/>
     <hyperlink ref="C5" r:id="rId2"/>
-    <hyperlink ref="C8" r:id="rId3"/>
+    <hyperlink ref="C9" r:id="rId3"/>
     <hyperlink ref="C6" r:id="rId4"/>
-    <hyperlink ref="C7" r:id="rId5"/>
-    <hyperlink ref="C11" r:id="rId6"/>
-    <hyperlink ref="C9" r:id="rId7"/>
+    <hyperlink ref="C8" r:id="rId5"/>
+    <hyperlink ref="C12" r:id="rId6"/>
+    <hyperlink ref="C10" r:id="rId7"/>
+    <hyperlink ref="C7" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
